--- a/public/uploadBin/keywordSource.xlsx
+++ b/public/uploadBin/keywordSource.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>陈赵阳</t>
     <rPh sb="0" eb="1">
@@ -44,6 +44,20 @@
   </si>
   <si>
     <t>备注</t>
+    <rPh sb="0" eb="1">
+      <t>bei zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望1</t>
+    <rPh sb="0" eb="1">
+      <t>qi wang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注2</t>
     <rPh sb="0" eb="1">
       <t>bei zhu</t>
     </rPh>
@@ -370,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -389,6 +403,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
